--- a/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H2">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I2">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J2">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>0.1351694945843189</v>
+        <v>0.1721237328675</v>
       </c>
       <c r="R2">
-        <v>0.1351694945843189</v>
+        <v>0.6884949314700001</v>
       </c>
       <c r="S2">
-        <v>0.01677634080712172</v>
+        <v>0.01678618066899128</v>
       </c>
       <c r="T2">
-        <v>0.01677634080712172</v>
+        <v>0.01069828203544231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H3">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I3">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J3">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>0.118772063979077</v>
+        <v>0.16667927823</v>
       </c>
       <c r="R3">
-        <v>0.118772063979077</v>
+        <v>1.00007566938</v>
       </c>
       <c r="S3">
-        <v>0.01474120051869617</v>
+        <v>0.01625521612583001</v>
       </c>
       <c r="T3">
-        <v>0.01474120051869617</v>
+        <v>0.01553982619010347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H4">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I4">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J4">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>0.07430687371368751</v>
+        <v>0.0009117397949999999</v>
       </c>
       <c r="R4">
-        <v>0.07430687371368751</v>
+        <v>0.00547043877</v>
       </c>
       <c r="S4">
-        <v>0.00922247613314073</v>
+        <v>8.891643625786627E-05</v>
       </c>
       <c r="T4">
-        <v>0.00922247613314073</v>
+        <v>8.500323552727309E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H5">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I5">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J5">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>0.1323857719696386</v>
+        <v>0.003938840535000001</v>
       </c>
       <c r="R5">
-        <v>0.1323857719696386</v>
+        <v>0.02363304321</v>
       </c>
       <c r="S5">
-        <v>0.01643084362641549</v>
+        <v>0.0003841311581230558</v>
       </c>
       <c r="T5">
-        <v>0.01643084362641549</v>
+        <v>0.0003672255960934285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.200729554814205</v>
+        <v>0.055305</v>
       </c>
       <c r="H6">
-        <v>0.200729554814205</v>
+        <v>0.11061</v>
       </c>
       <c r="I6">
-        <v>0.2641788018815708</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J6">
-        <v>0.2641788018815708</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>0.6245999177255381</v>
+        <v>0.09754443340499999</v>
       </c>
       <c r="R6">
-        <v>0.6245999177255381</v>
+        <v>0.58526660043</v>
       </c>
       <c r="S6">
-        <v>0.07752119751640643</v>
+        <v>0.009512915244820881</v>
       </c>
       <c r="T6">
-        <v>0.07752119751640643</v>
+        <v>0.009094253089062124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.200729554814205</v>
+        <v>0.055305</v>
       </c>
       <c r="H7">
-        <v>0.200729554814205</v>
+        <v>0.11061</v>
       </c>
       <c r="I7">
-        <v>0.2641788018815708</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J7">
-        <v>0.2641788018815708</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>0.5488296129060919</v>
+        <v>0.1687205949975</v>
       </c>
       <c r="R7">
-        <v>0.5488296129060919</v>
+        <v>0.67488237999</v>
       </c>
       <c r="S7">
-        <v>0.06811709002440437</v>
+        <v>0.01645429333320312</v>
       </c>
       <c r="T7">
-        <v>0.06811709002440437</v>
+        <v>0.01048676135707787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H8">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J8">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>0.3433619941447608</v>
+        <v>0.7704325300556667</v>
       </c>
       <c r="R8">
-        <v>0.3433619941447608</v>
+        <v>4.622595180334001</v>
       </c>
       <c r="S8">
-        <v>0.04261581247825205</v>
+        <v>0.07513559825441352</v>
       </c>
       <c r="T8">
-        <v>0.04261581247825205</v>
+        <v>0.07182889040199758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H9">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J9">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>0.6117367127439184</v>
+        <v>0.746062939115111</v>
       </c>
       <c r="R9">
-        <v>0.6117367127439184</v>
+        <v>6.714566452035999</v>
       </c>
       <c r="S9">
-        <v>0.07592470186250797</v>
+        <v>0.07275898028580088</v>
       </c>
       <c r="T9">
-        <v>0.07592470186250797</v>
+        <v>0.1043353006190292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H10">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J10">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>0.3479428188665734</v>
+        <v>0.004080982821555556</v>
       </c>
       <c r="R10">
-        <v>0.3479428188665734</v>
+        <v>0.036728845394</v>
       </c>
       <c r="S10">
-        <v>0.04318435404857564</v>
+        <v>0.0003979934307049654</v>
       </c>
       <c r="T10">
-        <v>0.04318435404857564</v>
+        <v>0.0005707166878080205</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H11">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J11">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>0.3057338260423982</v>
+        <v>0.01763040359577778</v>
       </c>
       <c r="R11">
-        <v>0.3057338260423982</v>
+        <v>0.158673632362</v>
       </c>
       <c r="S11">
-        <v>0.03794565391936865</v>
+        <v>0.001719386020135747</v>
       </c>
       <c r="T11">
-        <v>0.03794565391936865</v>
+        <v>0.002465574099394412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H12">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I12">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J12">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>0.1912749853849222</v>
+        <v>0.4366126818717778</v>
       </c>
       <c r="R12">
-        <v>0.1912749853849222</v>
+        <v>3.929514136846</v>
       </c>
       <c r="S12">
-        <v>0.02373978206075905</v>
+        <v>0.04258017902687682</v>
       </c>
       <c r="T12">
-        <v>0.02373978206075905</v>
+        <v>0.06105934637525789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H13">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I13">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J13">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>0.3407771762304659</v>
+        <v>0.7551999524463334</v>
       </c>
       <c r="R13">
-        <v>0.3407771762304659</v>
+        <v>4.531199714678</v>
       </c>
       <c r="S13">
-        <v>0.04229500202920865</v>
+        <v>0.07365005761719333</v>
       </c>
       <c r="T13">
-        <v>0.04229500202920865</v>
+        <v>0.07040872821393204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H14">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I14">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J14">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>0.2777469807963746</v>
+        <v>0.3905558717726666</v>
       </c>
       <c r="R14">
-        <v>0.2777469807963746</v>
+        <v>2.343335230636</v>
       </c>
       <c r="S14">
-        <v>0.03447211238244604</v>
+        <v>0.03808853849316703</v>
       </c>
       <c r="T14">
-        <v>0.03447211238244604</v>
+        <v>0.03641226689556909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H15">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I15">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J15">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>0.2440534550683265</v>
+        <v>0.378202178927111</v>
       </c>
       <c r="R15">
-        <v>0.2440534550683265</v>
+        <v>3.403819610343999</v>
       </c>
       <c r="S15">
-        <v>0.03029029552838765</v>
+        <v>0.03688375797522209</v>
       </c>
       <c r="T15">
-        <v>0.03029029552838765</v>
+        <v>0.05289076291597389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H16">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I16">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J16">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>0.1526861507462386</v>
+        <v>0.002068775319555555</v>
       </c>
       <c r="R16">
-        <v>0.1526861507462386</v>
+        <v>0.018618977876</v>
       </c>
       <c r="S16">
-        <v>0.01895039194548875</v>
+        <v>0.0002017550729296712</v>
       </c>
       <c r="T16">
-        <v>0.01895039194548875</v>
+        <v>0.0002893137878354709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H17">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I17">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J17">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>0.2720269730832457</v>
+        <v>0.008937392149777778</v>
       </c>
       <c r="R17">
-        <v>0.2720269730832457</v>
+        <v>0.080436529348</v>
       </c>
       <c r="S17">
-        <v>0.03376218297781285</v>
+        <v>0.0008716094918257575</v>
       </c>
       <c r="T17">
-        <v>0.03376218297781285</v>
+        <v>0.001249875108128567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0483226329962556</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H18">
-        <v>0.0483226329962556</v>
+        <v>0.376468</v>
       </c>
       <c r="I18">
-        <v>0.06359708863266142</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J18">
-        <v>0.06359708863266142</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>0.1503630724517838</v>
+        <v>0.2213323554537777</v>
       </c>
       <c r="R18">
-        <v>0.1503630724517838</v>
+        <v>1.991991199084</v>
       </c>
       <c r="S18">
-        <v>0.01866206688139605</v>
+        <v>0.02158519830266839</v>
       </c>
       <c r="T18">
-        <v>0.01866206688139605</v>
+        <v>0.0309528548226475</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0483226329962556</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H19">
-        <v>0.0483226329962556</v>
+        <v>0.376468</v>
       </c>
       <c r="I19">
-        <v>0.06359708863266142</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J19">
-        <v>0.06359708863266142</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>0.1321225067553495</v>
+        <v>0.3828340111353333</v>
       </c>
       <c r="R19">
-        <v>0.1321225067553495</v>
+        <v>2.297004066812</v>
       </c>
       <c r="S19">
-        <v>0.01639816889480422</v>
+        <v>0.03733547239589134</v>
       </c>
       <c r="T19">
-        <v>0.01639816889480422</v>
+        <v>0.03569234313874325</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H20">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I20">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J20">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>0.08265925584938109</v>
+        <v>0.29827933384</v>
       </c>
       <c r="R20">
-        <v>0.08265925584938109</v>
+        <v>1.78967600304</v>
       </c>
       <c r="S20">
-        <v>0.01025911838508244</v>
+        <v>0.0290893690501062</v>
       </c>
       <c r="T20">
-        <v>0.01025911838508244</v>
+        <v>0.02780914972272285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H21">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I21">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J21">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N21">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O21">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P21">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q21">
-        <v>0.1472664485686802</v>
+        <v>0.2888444449066666</v>
       </c>
       <c r="R21">
-        <v>0.1472664485686802</v>
+        <v>2.59960000416</v>
       </c>
       <c r="S21">
-        <v>0.0182777344713787</v>
+        <v>0.02816924172316334</v>
       </c>
       <c r="T21">
-        <v>0.0182777344713787</v>
+        <v>0.04039427561864704</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.266252780454965</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H22">
-        <v>0.266252780454965</v>
+        <v>0.28752</v>
       </c>
       <c r="I22">
-        <v>0.3504134735083462</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J22">
-        <v>0.3504134735083462</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N22">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O22">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P22">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q22">
-        <v>0.8284851970119461</v>
+        <v>0.001579986293333333</v>
       </c>
       <c r="R22">
-        <v>0.8284851970119461</v>
+        <v>0.01421987664</v>
       </c>
       <c r="S22">
-        <v>0.1028260855858835</v>
+        <v>0.0001540864524175735</v>
       </c>
       <c r="T22">
-        <v>0.1028260855858835</v>
+        <v>0.0002209576916987755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.266252780454965</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H23">
-        <v>0.266252780454965</v>
+        <v>0.28752</v>
       </c>
       <c r="I23">
-        <v>0.3504134735083462</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J23">
-        <v>0.3504134735083462</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N23">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O23">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P23">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q23">
-        <v>0.7279815399756375</v>
+        <v>0.006825756746666667</v>
       </c>
       <c r="R23">
-        <v>0.7279815399756375</v>
+        <v>0.06143181072000001</v>
       </c>
       <c r="S23">
-        <v>0.0903522385245452</v>
+        <v>0.0006656745356570593</v>
       </c>
       <c r="T23">
-        <v>0.0903522385245452</v>
+        <v>0.0009545674296065688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.266252780454965</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H24">
-        <v>0.266252780454965</v>
+        <v>0.28752</v>
       </c>
       <c r="I24">
-        <v>0.3504134735083462</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J24">
-        <v>0.3504134735083462</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N24">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O24">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P24">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q24">
-        <v>0.4554440711444968</v>
+        <v>0.1690382153066667</v>
       </c>
       <c r="R24">
-        <v>0.4554440711444968</v>
+        <v>1.52134393776</v>
       </c>
       <c r="S24">
-        <v>0.05652669620168477</v>
+        <v>0.01648526890992917</v>
       </c>
       <c r="T24">
-        <v>0.05652669620168477</v>
+        <v>0.02363963157189352</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.266252780454965</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H25">
-        <v>0.266252780454965</v>
+        <v>0.28752</v>
       </c>
       <c r="I25">
-        <v>0.3504134735083462</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J25">
-        <v>0.3504134735083462</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N25">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O25">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P25">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q25">
-        <v>0.8114231151720872</v>
+        <v>0.29238191528</v>
       </c>
       <c r="R25">
-        <v>0.8114231151720872</v>
+        <v>1.75429149168</v>
       </c>
       <c r="S25">
-        <v>0.1007084531962328</v>
+        <v>0.02851422969088124</v>
       </c>
       <c r="T25">
-        <v>0.1007084531962328</v>
+        <v>0.02725932217147662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.186067</v>
+      </c>
+      <c r="I26">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J26">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>0.1930298442181667</v>
+      </c>
+      <c r="R26">
+        <v>1.158179065309</v>
+      </c>
+      <c r="S26">
+        <v>0.01882502654092275</v>
+      </c>
+      <c r="T26">
+        <v>0.01799653958492582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.186067</v>
+      </c>
+      <c r="I27">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J27">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>0.1869241072984444</v>
+      </c>
+      <c r="R27">
+        <v>1.682316965686</v>
+      </c>
+      <c r="S27">
+        <v>0.01822957115923703</v>
+      </c>
+      <c r="T27">
+        <v>0.02614093517506538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.186067</v>
+      </c>
+      <c r="I28">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J28">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>0.001022479513222222</v>
+      </c>
+      <c r="R28">
+        <v>0.009202315619</v>
+      </c>
+      <c r="S28">
+        <v>9.971620736637676E-05</v>
+      </c>
+      <c r="T28">
+        <v>0.0001429915651826518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.186067</v>
+      </c>
+      <c r="I29">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J29">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>0.004417251254111111</v>
+      </c>
+      <c r="R29">
+        <v>0.039755261287</v>
+      </c>
+      <c r="S29">
+        <v>0.0004307876454719742</v>
+      </c>
+      <c r="T29">
+        <v>0.000617743106304276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.186067</v>
+      </c>
+      <c r="I30">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J30">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>0.1093921591801111</v>
+      </c>
+      <c r="R30">
+        <v>0.9845294326209999</v>
+      </c>
+      <c r="S30">
+        <v>0.01066835187209165</v>
+      </c>
+      <c r="T30">
+        <v>0.01529825865222423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.186067</v>
+      </c>
+      <c r="I31">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J31">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>0.1892133619588333</v>
+      </c>
+      <c r="R31">
+        <v>1.135280171753</v>
+      </c>
+      <c r="S31">
+        <v>0.01845282824114218</v>
+      </c>
+      <c r="T31">
+        <v>0.01764072168363988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3435785</v>
+      </c>
+      <c r="H32">
+        <v>0.687157</v>
+      </c>
+      <c r="I32">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J32">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>1.06930682493475</v>
+      </c>
+      <c r="R32">
+        <v>4.277227299739001</v>
+      </c>
+      <c r="S32">
+        <v>0.104282990235621</v>
+      </c>
+      <c r="T32">
+        <v>0.06646233964947504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3435785</v>
+      </c>
+      <c r="H33">
+        <v>0.687157</v>
+      </c>
+      <c r="I33">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J33">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>1.035483525817666</v>
+      </c>
+      <c r="R33">
+        <v>6.212901154906</v>
+      </c>
+      <c r="S33">
+        <v>0.1009844096137508</v>
+      </c>
+      <c r="T33">
+        <v>0.09654009895409935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3435785</v>
+      </c>
+      <c r="H34">
+        <v>0.687157</v>
+      </c>
+      <c r="I34">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J34">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.005664120624833333</v>
+      </c>
+      <c r="R34">
+        <v>0.033984723749</v>
+      </c>
+      <c r="S34">
+        <v>0.0005523872307173548</v>
+      </c>
+      <c r="T34">
+        <v>0.0005280767409385624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3435785</v>
+      </c>
+      <c r="H35">
+        <v>0.687157</v>
+      </c>
+      <c r="I35">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J35">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>0.02446977529616667</v>
+      </c>
+      <c r="R35">
+        <v>0.146818651777</v>
+      </c>
+      <c r="S35">
+        <v>0.00238638833941203</v>
+      </c>
+      <c r="T35">
+        <v>0.002281363700703119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3435785</v>
+      </c>
+      <c r="H36">
+        <v>0.687157</v>
+      </c>
+      <c r="I36">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J36">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>0.6059880682151666</v>
+      </c>
+      <c r="R36">
+        <v>3.635928409291</v>
+      </c>
+      <c r="S36">
+        <v>0.059098330177067</v>
+      </c>
+      <c r="T36">
+        <v>0.05649742039526862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3435785</v>
+      </c>
+      <c r="H37">
+        <v>0.687157</v>
+      </c>
+      <c r="I37">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J37">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>1.04816506551575</v>
+      </c>
+      <c r="R37">
+        <v>4.192660262063</v>
+      </c>
+      <c r="S37">
+        <v>0.1022211630409896</v>
+      </c>
+      <c r="T37">
+        <v>0.06514828201650444</v>
       </c>
     </row>
   </sheetData>
